--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,114 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>shit</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>false</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -160,30 +157,30 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -193,34 +190,34 @@
     <t>wow</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>worth</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>well</t>
+    <t>true</t>
   </si>
   <si>
     <t>much</t>
@@ -229,40 +226,28 @@
     <t>really</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
   </si>
   <si>
     <t>’</t>
@@ -626,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -745,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -795,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -845,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -895,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,10 +933,10 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.7192982456140351</v>
+        <v>0.7</v>
       </c>
       <c r="L9">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.6266666666666667</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.5862068965517241</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7272727272727273</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,16 +1201,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.5666666666666667</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.725</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,31 +1248,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>14</v>
-      </c>
-      <c r="M14">
-        <v>14</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,49 +1280,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>0.5</v>
-      </c>
-      <c r="L15">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>9</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6811594202898551</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.3157894736842105</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,16 +1451,16 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.3043478260869565</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1487,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.2926829268292683</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
         <v>12</v>
@@ -1537,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.2608695652173913</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.2121212121212121</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5714285714285714</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.2033898305084746</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1695,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.1851851851851852</v>
+        <v>0.12</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1745,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5217391304347826</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1763,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.1639344262295082</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.1329690346083789</v>
+        <v>0.1183970856102004</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>952</v>
+        <v>968</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1863,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.1304347826086956</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1887,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1895,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1913,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.1230769230769231</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1937,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,10 +1933,10 @@
         <v>0.5</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1963,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.1157894736842105</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1987,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,10 +1983,10 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2013,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.1126760563380282</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2037,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2045,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4857142857142857</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2063,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <v>0.06360424028268551</v>
+      </c>
+      <c r="L30">
         <v>18</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="L30">
-        <v>6</v>
-      </c>
       <c r="M30">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2095,13 +2080,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4761904761904762</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2113,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.1058823529411765</v>
+        <v>0.06031746031746032</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2137,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,16 +2151,16 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K32">
-        <v>0.06007067137809187</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2187,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>266</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,10 +2183,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2213,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.05740740740740741</v>
+        <v>0.04383116883116883</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2237,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>509</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2245,13 +2230,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3829787234042553</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2263,31 +2248,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.04444444444444445</v>
+        <v>0.03754266211604096</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2295,13 +2280,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2313,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.04379562043795621</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2337,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>131</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2345,13 +2330,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2363,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.04216867469879518</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2387,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>636</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2395,38 +2380,38 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2916666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>58</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>0.02052785923753666</v>
+      </c>
+      <c r="L37">
         <v>7</v>
       </c>
-      <c r="D37">
+      <c r="M37">
         <v>7</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>17</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K37">
-        <v>0.03733766233766234</v>
-      </c>
-      <c r="L37">
-        <v>23</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2437,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>593</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2445,151 +2430,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2285714285714286</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.03110599078341014</v>
+        <v>0.01668806161745828</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.217948717948718</v>
-      </c>
-      <c r="C39">
-        <v>17</v>
-      </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>61</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.02352941176470588</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <v>0.89</v>
-      </c>
-      <c r="O39">
-        <v>0.11</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
-        <v>0.02027027027027027</v>
-      </c>
-      <c r="L40">
-        <v>6</v>
-      </c>
-      <c r="M40">
-        <v>9</v>
-      </c>
-      <c r="N40">
-        <v>0.67</v>
-      </c>
-      <c r="O40">
-        <v>0.33</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.01536491677336748</v>
-      </c>
-      <c r="L41">
-        <v>12</v>
-      </c>
-      <c r="M41">
-        <v>12</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
